--- a/biology/Zoologie/Chromatopelma_cyaneopubescens/Chromatopelma_cyaneopubescens.xlsx
+++ b/biology/Zoologie/Chromatopelma_cyaneopubescens/Chromatopelma_cyaneopubescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chromatopelma cyaneopubescens ou GreenBottle Blue, est l'unique représentant du genre Chromatopelma. C'est une espèce d'araignées mygalomorphes de la famille des Theraphosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chromatopelma cyaneopubescens ou GreenBottle Blue, est l'unique représentant du genre Chromatopelma. C'est une espèce d'araignées mygalomorphes de la famille des Theraphosidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'État de Falcón au Venezuela[1]. Elle se rencontre dans la péninsule de Paraguaná[2]. Il s'agit d'une mygale terricole qui tisse énormément.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'État de Falcón au Venezuela. Elle se rencontre dans la péninsule de Paraguaná. Il s'agit d'une mygale terricole qui tisse énormément.
 </t>
         </is>
       </c>
@@ -544,10 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Généralités
-Ses pattes sont d'un bleu métallique, son céphalothorax est bleu-vert et son abdomen orangé. Les poils sont clairs. Le corps mesure entre 6 et 7 cm, pour une envergure de 14 à 15 cm. Les juvéniles ont le céphalothorax doré, l'abdomen orange rayé de noir et les pattes bleutées. Cette mygale est peu agressive, la prudence est néanmoins requise en raison de la grande rapidité de l'animal. Elle n'hésite pas à s'attaquer à des proies aussi grosses qu'elle. Cette mygale est presque aveugle : elle peut néanmoins distinguer le jour de la nuit ainsi que les mouvements. En revanche, elle est extrêmement sensible aux vibrations de sa toile, ce qui lui permet de compenser ce handicap.
-Des poils nano-structurées
-D'après une analyse datant de novembre 2015, des chercheurs ont découvert que la couleur bleue des poils de cette mygale, est due à leur surface nano-structurée. Ces motifs permettent une diffraction de la lumière visible. La couleur de ces poils demeure inchangée quel que soit l'angle de vue. Pour le moment, l'utilité de cette coloration, pour l'animal, est inconnue. Seules neuf espèces de mygale présentent cette coloration et donc cette structure.
+          <t>Généralités</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses pattes sont d'un bleu métallique, son céphalothorax est bleu-vert et son abdomen orangé. Les poils sont clairs. Le corps mesure entre 6 et 7 cm, pour une envergure de 14 à 15 cm. Les juvéniles ont le céphalothorax doré, l'abdomen orange rayé de noir et les pattes bleutées. Cette mygale est peu agressive, la prudence est néanmoins requise en raison de la grande rapidité de l'animal. Elle n'hésite pas à s'attaquer à des proies aussi grosses qu'elle. Cette mygale est presque aveugle : elle peut néanmoins distinguer le jour de la nuit ainsi que les mouvements. En revanche, elle est extrêmement sensible aux vibrations de sa toile, ce qui lui permet de compenser ce handicap.
 </t>
         </is>
       </c>
@@ -573,12 +590,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>En captivité</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette espèce se rencontre en terrariophilie. C'est une espèce relativement facile à élever. Un terrarium de 30 × 30 × 30 cm suffit. Le substrat doit être modérément humide voire sec. L'intervalle de température à respecter est de 23 - 30 °C. En raison de sa rapidité, il est déconseillé aux novices de la manipuler. La durée moyenne de vie de cette espèce est de 15 - 18 ans pour les femelles et 5 ans pour les mâles. Comme la plupart des mygales, la mue imaginale est la dernière mue effectuée par le mâle tandis que la femelle continue de muer toute sa vie à des intervalles de plus en plus espacés.
+          <t>Des poils nano-structurées</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après une analyse datant de novembre 2015, des chercheurs ont découvert que la couleur bleue des poils de cette mygale, est due à leur surface nano-structurée. Ces motifs permettent une diffraction de la lumière visible. La couleur de ces poils demeure inchangée quel que soit l'angle de vue. Pour le moment, l'utilité de cette coloration, pour l'animal, est inconnue. Seules neuf espèces de mygale présentent cette coloration et donc cette structure.
 </t>
         </is>
       </c>
@@ -604,13 +627,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>La reproduction</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maturité sexuelle est atteinte environ à l'âge de 18 mois. Le mâle lors de sa mue imaginale acquiert les caractères sexuels : bulbes copulateurs sur les pédipalpes et une paire d'apophyses tibiales sur la première paire de pattes. Les apophyses tibiales lui permettront, pendant la phase d'accouplement de maintenir sa partenaire en hauteur et d'éviter d'être dévoré par cette dernière. La reproduction est assez facile. Le mâle et la femelle peuvent cohabiter. La femelle s'enferme pour faire son cocon 3 à 5 mois après l'accouplement. L'incubation dure 2 mois environ. À la naissance, il y a une centaine de jeunes très voraces.
-La croissance est modérément longue.
+          <t>En captivité</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en terrariophilie. C'est une espèce relativement facile à élever. Un terrarium de 30 × 30 × 30 cm suffit. Le substrat doit être modérément humide voire sec. L'intervalle de température à respecter est de 23 - 30 °C. En raison de sa rapidité, il est déconseillé aux novices de la manipuler. La durée moyenne de vie de cette espèce est de 15 - 18 ans pour les femelles et 5 ans pour les mâles. Comme la plupart des mygales, la mue imaginale est la dernière mue effectuée par le mâle tandis que la femelle continue de muer toute sa vie à des intervalles de plus en plus espacés.
 </t>
         </is>
       </c>
@@ -636,10 +660,46 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>La reproduction</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maturité sexuelle est atteinte environ à l'âge de 18 mois. Le mâle lors de sa mue imaginale acquiert les caractères sexuels : bulbes copulateurs sur les pédipalpes et une paire d'apophyses tibiales sur la première paire de pattes. Les apophyses tibiales lui permettront, pendant la phase d'accouplement de maintenir sa partenaire en hauteur et d'éviter d'être dévoré par cette dernière. La reproduction est assez facile. Le mâle et la femelle peuvent cohabiter. La femelle s'enferme pour faire son cocon 3 à 5 mois après l'accouplement. L'incubation dure 2 mois environ. À la naissance, il y a une centaine de jeunes très voraces.
+La croissance est modérément longue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chromatopelma_cyaneopubescens</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chromatopelma_cyaneopubescens</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Strand, 1907 : Aviculariidae und Atypidae des Kgl. Naturalienkabinetts in Stuttgart. Jahreshefte des Vereins fur vaterlandische Naturkunde in Wurttemberg, vol. 63, p. 1-100.
 Schmidt, 1995 : Chromatopelma gen. n.: Eine neue Gattung der Theraphosidae (Arachnida:Araneida: Theraphosidae: Theraphosinae). Arthropoda, vol. 3, no 2, p. 25–26.
